--- a/lottery-system/data/users.xlsx
+++ b/lottery-system/data/users.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>15506917389</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -120,7 +123,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>4997.0</v>
+        <v>8797.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -137,9 +140,26 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>1481.0</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1384.0</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
